--- a/forms/app/referral.xlsx
+++ b/forms/app/referral.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\medic-projects\nepal-healthform\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821828BE-9592-4039-86CE-835B23096974}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="236">
   <si>
     <t>form_title</t>
   </si>
@@ -691,12 +696,60 @@
   </si>
   <si>
     <t>**Temperature measured by clinical thermometer**</t>
+  </si>
+  <si>
+    <t>** Température mesurée par un thermomètre à infrarouge **</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>** La température mesurée par un thermomètre clinique **</t>
+  </si>
+  <si>
+    <t>Veuillez préciser</t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>teku Hôpital</t>
+  </si>
+  <si>
+    <t>Hôpital Patan</t>
+  </si>
+  <si>
+    <t>Hôpital de la police</t>
+  </si>
+  <si>
+    <t>Hôpital armée</t>
+  </si>
+  <si>
+    <t>Kirtipur Hôpital</t>
+  </si>
+  <si>
+    <t>Hôpital civil</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>° C</t>
+  </si>
+  <si>
+    <t>° F</t>
+  </si>
+  <si>
+    <t>Patient référé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -1280,37 +1333,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="73.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="27" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" customWidth="1"/>
+    <col min="8" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="28" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1320,55 +1373,57 @@
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
@@ -1376,8 +1431,9 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1387,15 +1443,15 @@
       <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -1406,7 +1462,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="15"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
@@ -1415,8 +1471,9 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -1426,7 +1483,7 @@
       <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1436,14 +1493,14 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="15"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
@@ -1452,8 +1509,9 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1521,7 @@
       <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1478,7 +1536,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="15"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -1487,8 +1545,9 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1498,7 +1557,7 @@
       <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1513,7 +1572,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
-      <c r="S5" s="15"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -1522,8 +1581,9 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
@@ -1533,13 +1593,13 @@
       <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1550,7 +1610,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="15"/>
+      <c r="S6" s="13"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -1559,8 +1619,9 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB6" s="15"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
@@ -1570,7 +1631,7 @@
       <c r="C7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1585,7 +1646,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="15"/>
+      <c r="S7" s="13"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -1594,8 +1655,9 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1667,7 @@
       <c r="C8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -1620,7 +1682,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="13"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -1629,8 +1691,9 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1664,8 +1727,9 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB9" s="22"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
         <v>29</v>
       </c>
@@ -1699,8 +1763,9 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB10" s="22"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>37</v>
       </c>
@@ -1734,8 +1799,9 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB11" s="22"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
         <v>37</v>
       </c>
@@ -1769,8 +1835,9 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB12" s="22"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
@@ -1804,8 +1871,9 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="22"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB13" s="22"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
@@ -1839,8 +1907,9 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB14" s="22"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
         <v>83</v>
       </c>
@@ -1870,8 +1939,9 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB15" s="22"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>83</v>
       </c>
@@ -1879,7 +1949,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -1894,7 +1964,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="15"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
@@ -1903,8 +1973,9 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>83</v>
       </c>
@@ -1912,7 +1983,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1925,11 +1996,11 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="15"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -1938,12 +2009,13 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -1956,9 +2028,9 @@
       <c r="N18" s="27"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="29"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="29"/>
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
@@ -1967,8 +2039,9 @@
       <c r="Y18" s="29"/>
       <c r="Z18" s="29"/>
       <c r="AA18" s="29"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB18" s="29"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>84</v>
       </c>
@@ -1978,24 +2051,24 @@
       <c r="C19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="34"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="31"/>
       <c r="T19" s="34"/>
       <c r="U19" s="34"/>
       <c r="V19" s="34"/>
@@ -2004,8 +2077,9 @@
       <c r="Y19" s="34"/>
       <c r="Z19" s="34"/>
       <c r="AA19" s="34"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB19" s="34"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>84</v>
       </c>
@@ -2015,24 +2089,24 @@
       <c r="C20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="31"/>
+      <c r="L20" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="34"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="31"/>
       <c r="T20" s="34"/>
       <c r="U20" s="34"/>
       <c r="V20" s="34"/>
@@ -2041,8 +2115,9 @@
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB20" s="34"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
         <v>84</v>
       </c>
@@ -2052,24 +2127,24 @@
       <c r="C21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31"/>
+      <c r="L21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="34"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="31"/>
       <c r="T21" s="34"/>
       <c r="U21" s="34"/>
       <c r="V21" s="34"/>
@@ -2078,15 +2153,16 @@
       <c r="Y21" s="34"/>
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB21" s="34"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -2098,7 +2174,7 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="37"/>
+      <c r="S22" s="27"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
@@ -2107,8 +2183,9 @@
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB22" s="37"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
         <v>94</v>
       </c>
@@ -2118,22 +2195,24 @@
       <c r="C23" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="48" t="s">
+        <v>220</v>
+      </c>
       <c r="E23" s="43"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="41"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="43"/>
       <c r="R23" s="43"/>
-      <c r="S23" s="46"/>
+      <c r="S23" s="43"/>
       <c r="T23" s="46"/>
       <c r="U23" s="46"/>
       <c r="V23" s="46"/>
@@ -2142,8 +2221,9 @@
       <c r="Y23" s="46"/>
       <c r="Z23" s="46"/>
       <c r="AA23" s="46"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB23" s="46"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
         <v>110</v>
       </c>
@@ -2153,24 +2233,26 @@
       <c r="C24" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="48" t="s">
+        <v>221</v>
+      </c>
       <c r="E24" s="43"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="41"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="43"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
-      <c r="N24" s="41" t="s">
+      <c r="N24" s="43"/>
+      <c r="O24" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
-      <c r="S24" s="46"/>
+      <c r="S24" s="43"/>
       <c r="T24" s="46"/>
       <c r="U24" s="46"/>
       <c r="V24" s="46"/>
@@ -2179,8 +2261,9 @@
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
       <c r="AA24" s="46"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB24" s="46"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
         <v>117</v>
       </c>
@@ -2190,26 +2273,28 @@
       <c r="C25" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="48" t="s">
+        <v>222</v>
+      </c>
       <c r="E25" s="43"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="41"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="41"/>
+      <c r="J25" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="K25" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="43"/>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="43"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="46"/>
+      <c r="S25" s="43"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
       <c r="V25" s="46"/>
@@ -2218,8 +2303,9 @@
       <c r="Y25" s="46"/>
       <c r="Z25" s="46"/>
       <c r="AA25" s="46"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB25" s="46"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
         <v>94</v>
       </c>
@@ -2229,22 +2315,24 @@
       <c r="C26" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="56" t="s">
+        <v>223</v>
+      </c>
       <c r="E26" s="43"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
       <c r="R26" s="43"/>
-      <c r="S26" s="46"/>
+      <c r="S26" s="43"/>
       <c r="T26" s="46"/>
       <c r="U26" s="46"/>
       <c r="V26" s="46"/>
@@ -2253,8 +2341,9 @@
       <c r="Y26" s="46"/>
       <c r="Z26" s="46"/>
       <c r="AA26" s="46"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB26" s="46"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
         <v>110</v>
       </c>
@@ -2264,24 +2353,26 @@
       <c r="C27" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="41"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="43"/>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="43"/>
       <c r="P27" s="43"/>
       <c r="Q27" s="43"/>
       <c r="R27" s="43"/>
-      <c r="S27" s="48"/>
+      <c r="S27" s="43"/>
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
       <c r="V27" s="48"/>
@@ -2290,8 +2381,9 @@
       <c r="Y27" s="48"/>
       <c r="Z27" s="48"/>
       <c r="AA27" s="48"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB27" s="48"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
         <v>117</v>
       </c>
@@ -2301,18 +2393,20 @@
       <c r="C28" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="48" t="s">
+        <v>222</v>
+      </c>
       <c r="E28" s="43"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="41"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="K28" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="43"/>
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -2320,7 +2414,7 @@
       <c r="P28" s="43"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="43"/>
-      <c r="S28" s="46"/>
+      <c r="S28" s="43"/>
       <c r="T28" s="46"/>
       <c r="U28" s="46"/>
       <c r="V28" s="46"/>
@@ -2329,8 +2423,9 @@
       <c r="Y28" s="46"/>
       <c r="Z28" s="46"/>
       <c r="AA28" s="46"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB28" s="46"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
         <v>142</v>
       </c>
@@ -2340,24 +2435,26 @@
       <c r="C29" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="43"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
-      <c r="S29" s="48"/>
+      <c r="S29" s="43"/>
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
       <c r="V29" s="48"/>
@@ -2366,8 +2463,9 @@
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="48"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB29" s="48"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
         <v>148</v>
       </c>
@@ -2377,14 +2475,16 @@
       <c r="C30" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="43"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
@@ -2394,9 +2494,9 @@
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="43"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="46"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="43"/>
       <c r="T30" s="46"/>
       <c r="U30" s="46"/>
       <c r="V30" s="46"/>
@@ -2405,8 +2505,9 @@
       <c r="Y30" s="46"/>
       <c r="Z30" s="46"/>
       <c r="AA30" s="46"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB30" s="46"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
         <v>148</v>
       </c>
@@ -2416,7 +2517,9 @@
       <c r="C31" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="43"/>
+      <c r="D31" s="48" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
@@ -2431,7 +2534,7 @@
       <c r="P31" s="43"/>
       <c r="Q31" s="43"/>
       <c r="R31" s="43"/>
-      <c r="S31" s="46"/>
+      <c r="S31" s="43"/>
       <c r="T31" s="46"/>
       <c r="U31" s="46"/>
       <c r="V31" s="46"/>
@@ -2440,27 +2543,28 @@
       <c r="Y31" s="46"/>
       <c r="Z31" s="46"/>
       <c r="AA31" s="46"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB31" s="46"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="41"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
       <c r="O32" s="43"/>
       <c r="P32" s="43"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="48"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="43"/>
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
@@ -2469,27 +2573,28 @@
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB32" s="48"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="41"/>
-      <c r="D33" s="43"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="45"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
       <c r="O33" s="43"/>
       <c r="P33" s="43"/>
       <c r="Q33" s="43"/>
       <c r="R33" s="43"/>
-      <c r="S33" s="48"/>
+      <c r="S33" s="43"/>
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
       <c r="V33" s="48"/>
@@ -2498,27 +2603,28 @@
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
       <c r="AA33" s="48"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB33" s="48"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="41"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="45"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
       <c r="R34" s="43"/>
-      <c r="S34" s="48"/>
+      <c r="S34" s="43"/>
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
       <c r="V34" s="48"/>
@@ -2527,27 +2633,28 @@
       <c r="Y34" s="48"/>
       <c r="Z34" s="48"/>
       <c r="AA34" s="48"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB34" s="48"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="49"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
       <c r="P35" s="43"/>
       <c r="Q35" s="43"/>
       <c r="R35" s="43"/>
-      <c r="S35" s="48"/>
+      <c r="S35" s="43"/>
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
@@ -2556,27 +2663,28 @@
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
       <c r="AA35" s="48"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB35" s="48"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="39"/>
       <c r="B36" s="49"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="45"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
       <c r="O36" s="43"/>
       <c r="P36" s="43"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
-      <c r="S36" s="48"/>
+      <c r="S36" s="43"/>
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
@@ -2585,27 +2693,28 @@
       <c r="Y36" s="48"/>
       <c r="Z36" s="48"/>
       <c r="AA36" s="48"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB36" s="48"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="45"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
       <c r="O37" s="43"/>
       <c r="P37" s="43"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
-      <c r="S37" s="48"/>
+      <c r="S37" s="43"/>
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
       <c r="V37" s="48"/>
@@ -2614,17 +2723,18 @@
       <c r="Y37" s="48"/>
       <c r="Z37" s="48"/>
       <c r="AA37" s="48"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB37" s="48"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="41"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="41"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="43"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="43"/>
       <c r="K38" s="43"/>
       <c r="L38" s="43"/>
@@ -2634,7 +2744,7 @@
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
-      <c r="S38" s="46"/>
+      <c r="S38" s="43"/>
       <c r="T38" s="46"/>
       <c r="U38" s="46"/>
       <c r="V38" s="46"/>
@@ -2643,27 +2753,28 @@
       <c r="Y38" s="46"/>
       <c r="Z38" s="46"/>
       <c r="AA38" s="46"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB38" s="46"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="41"/>
-      <c r="D39" s="43"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="43"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="47"/>
       <c r="M39" s="43"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
-      <c r="S39" s="48"/>
+      <c r="S39" s="43"/>
       <c r="T39" s="48"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
@@ -2672,27 +2783,28 @@
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
       <c r="AA39" s="48"/>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB39" s="48"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="41"/>
-      <c r="D40" s="43"/>
+      <c r="D40" s="48"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="43"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="47"/>
       <c r="M40" s="43"/>
       <c r="N40" s="43"/>
       <c r="O40" s="43"/>
       <c r="P40" s="43"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
-      <c r="S40" s="48"/>
+      <c r="S40" s="43"/>
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
@@ -2701,27 +2813,28 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB40" s="48"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="41"/>
-      <c r="D41" s="43"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="43"/>
       <c r="N41" s="43"/>
       <c r="O41" s="43"/>
       <c r="P41" s="43"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
-      <c r="S41" s="48"/>
+      <c r="S41" s="43"/>
       <c r="T41" s="48"/>
       <c r="U41" s="48"/>
       <c r="V41" s="48"/>
@@ -2730,27 +2843,28 @@
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB41" s="48"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="41"/>
-      <c r="D42" s="43"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="43"/>
-      <c r="F42" s="41"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="41"/>
-      <c r="H42" s="43"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="43"/>
       <c r="J42" s="43"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="43"/>
       <c r="N42" s="43"/>
       <c r="O42" s="43"/>
       <c r="P42" s="43"/>
       <c r="Q42" s="43"/>
       <c r="R42" s="43"/>
-      <c r="S42" s="48"/>
+      <c r="S42" s="43"/>
       <c r="T42" s="48"/>
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
@@ -2759,27 +2873,28 @@
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB42" s="48"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="41"/>
-      <c r="D43" s="43"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="41"/>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
       <c r="J43" s="43"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="43"/>
       <c r="N43" s="43"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
-      <c r="S43" s="48"/>
+      <c r="S43" s="43"/>
       <c r="T43" s="48"/>
       <c r="U43" s="48"/>
       <c r="V43" s="48"/>
@@ -2788,27 +2903,28 @@
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB43" s="48"/>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="41"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
       <c r="I44" s="43"/>
       <c r="J44" s="43"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
       <c r="O44" s="43"/>
       <c r="P44" s="43"/>
       <c r="Q44" s="43"/>
       <c r="R44" s="43"/>
-      <c r="S44" s="48"/>
+      <c r="S44" s="43"/>
       <c r="T44" s="48"/>
       <c r="U44" s="48"/>
       <c r="V44" s="48"/>
@@ -2817,27 +2933,28 @@
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
       <c r="AA44" s="48"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB44" s="48"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="41"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
       <c r="J45" s="43"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="45"/>
       <c r="M45" s="43"/>
       <c r="N45" s="43"/>
       <c r="O45" s="43"/>
       <c r="P45" s="43"/>
       <c r="Q45" s="43"/>
       <c r="R45" s="43"/>
-      <c r="S45" s="48"/>
+      <c r="S45" s="43"/>
       <c r="T45" s="48"/>
       <c r="U45" s="48"/>
       <c r="V45" s="48"/>
@@ -2846,27 +2963,28 @@
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB45" s="48"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="41"/>
-      <c r="D46" s="43"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="43"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="45"/>
       <c r="M46" s="43"/>
       <c r="N46" s="43"/>
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
       <c r="R46" s="43"/>
-      <c r="S46" s="48"/>
+      <c r="S46" s="43"/>
       <c r="T46" s="48"/>
       <c r="U46" s="48"/>
       <c r="V46" s="48"/>
@@ -2875,27 +2993,28 @@
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="48"/>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB46" s="48"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="41"/>
-      <c r="D47" s="43"/>
+      <c r="D47" s="48"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
       <c r="J47" s="43"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="45"/>
       <c r="M47" s="43"/>
       <c r="N47" s="43"/>
       <c r="O47" s="43"/>
       <c r="P47" s="43"/>
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
-      <c r="S47" s="48"/>
+      <c r="S47" s="43"/>
       <c r="T47" s="48"/>
       <c r="U47" s="48"/>
       <c r="V47" s="48"/>
@@ -2904,27 +3023,28 @@
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="48"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB47" s="48"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="41"/>
-      <c r="D48" s="43"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="43"/>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
       <c r="J48" s="43"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="43"/>
       <c r="N48" s="43"/>
       <c r="O48" s="43"/>
       <c r="P48" s="43"/>
       <c r="Q48" s="43"/>
       <c r="R48" s="43"/>
-      <c r="S48" s="48"/>
+      <c r="S48" s="43"/>
       <c r="T48" s="48"/>
       <c r="U48" s="48"/>
       <c r="V48" s="48"/>
@@ -2933,27 +3053,28 @@
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
       <c r="AA48" s="48"/>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB48" s="48"/>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="41"/>
-      <c r="D49" s="43"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
       <c r="J49" s="43"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="45"/>
       <c r="M49" s="43"/>
       <c r="N49" s="43"/>
       <c r="O49" s="43"/>
       <c r="P49" s="43"/>
       <c r="Q49" s="43"/>
       <c r="R49" s="43"/>
-      <c r="S49" s="48"/>
+      <c r="S49" s="43"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
       <c r="V49" s="48"/>
@@ -2962,27 +3083,28 @@
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
       <c r="AA49" s="48"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB49" s="48"/>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="41"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
       <c r="I50" s="43"/>
       <c r="J50" s="43"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
       <c r="O50" s="43"/>
       <c r="P50" s="43"/>
       <c r="Q50" s="43"/>
       <c r="R50" s="43"/>
-      <c r="S50" s="48"/>
+      <c r="S50" s="43"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
       <c r="V50" s="48"/>
@@ -2991,27 +3113,28 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="48"/>
       <c r="AA50" s="48"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB50" s="48"/>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="41"/>
-      <c r="D51" s="43"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
       <c r="I51" s="43"/>
       <c r="J51" s="43"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="45"/>
       <c r="M51" s="43"/>
       <c r="N51" s="43"/>
       <c r="O51" s="43"/>
       <c r="P51" s="43"/>
       <c r="Q51" s="43"/>
       <c r="R51" s="43"/>
-      <c r="S51" s="48"/>
+      <c r="S51" s="43"/>
       <c r="T51" s="48"/>
       <c r="U51" s="48"/>
       <c r="V51" s="48"/>
@@ -3020,27 +3143,28 @@
       <c r="Y51" s="48"/>
       <c r="Z51" s="48"/>
       <c r="AA51" s="48"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB51" s="48"/>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="39"/>
       <c r="B52" s="49"/>
       <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
       <c r="I52" s="43"/>
       <c r="J52" s="43"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="45"/>
       <c r="M52" s="43"/>
       <c r="N52" s="43"/>
       <c r="O52" s="43"/>
       <c r="P52" s="43"/>
       <c r="Q52" s="43"/>
       <c r="R52" s="43"/>
-      <c r="S52" s="48"/>
+      <c r="S52" s="43"/>
       <c r="T52" s="48"/>
       <c r="U52" s="48"/>
       <c r="V52" s="48"/>
@@ -3049,27 +3173,28 @@
       <c r="Y52" s="48"/>
       <c r="Z52" s="48"/>
       <c r="AA52" s="48"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB52" s="48"/>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="49"/>
       <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
+      <c r="D53" s="45"/>
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
       <c r="H53" s="43"/>
       <c r="I53" s="43"/>
       <c r="J53" s="43"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="45"/>
       <c r="M53" s="43"/>
       <c r="N53" s="43"/>
       <c r="O53" s="43"/>
       <c r="P53" s="43"/>
       <c r="Q53" s="43"/>
       <c r="R53" s="43"/>
-      <c r="S53" s="48"/>
+      <c r="S53" s="43"/>
       <c r="T53" s="48"/>
       <c r="U53" s="48"/>
       <c r="V53" s="48"/>
@@ -3078,15 +3203,16 @@
       <c r="Y53" s="48"/>
       <c r="Z53" s="48"/>
       <c r="AA53" s="48"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB53" s="48"/>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="52"/>
       <c r="C54" s="45"/>
-      <c r="D54" s="43"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="43"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="45"/>
       <c r="H54" s="43"/>
       <c r="I54" s="43"/>
       <c r="J54" s="43"/>
@@ -3098,7 +3224,7 @@
       <c r="P54" s="43"/>
       <c r="Q54" s="43"/>
       <c r="R54" s="43"/>
-      <c r="S54" s="53"/>
+      <c r="S54" s="43"/>
       <c r="T54" s="53"/>
       <c r="U54" s="53"/>
       <c r="V54" s="53"/>
@@ -3107,17 +3233,18 @@
       <c r="Y54" s="53"/>
       <c r="Z54" s="53"/>
       <c r="AA54" s="53"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB54" s="53"/>
+    </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="41"/>
-      <c r="D55" s="43"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="43"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="41"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="43"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="43"/>
       <c r="K55" s="43"/>
       <c r="L55" s="43"/>
@@ -3127,7 +3254,7 @@
       <c r="P55" s="43"/>
       <c r="Q55" s="43"/>
       <c r="R55" s="43"/>
-      <c r="S55" s="53"/>
+      <c r="S55" s="43"/>
       <c r="T55" s="53"/>
       <c r="U55" s="53"/>
       <c r="V55" s="53"/>
@@ -3136,27 +3263,28 @@
       <c r="Y55" s="53"/>
       <c r="Z55" s="53"/>
       <c r="AA55" s="53"/>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB55" s="53"/>
+    </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="41"/>
-      <c r="D56" s="43"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="43"/>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
       <c r="J56" s="43"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="45"/>
       <c r="M56" s="43"/>
       <c r="N56" s="43"/>
       <c r="O56" s="43"/>
       <c r="P56" s="43"/>
       <c r="Q56" s="43"/>
       <c r="R56" s="43"/>
-      <c r="S56" s="48"/>
+      <c r="S56" s="43"/>
       <c r="T56" s="48"/>
       <c r="U56" s="48"/>
       <c r="V56" s="48"/>
@@ -3165,27 +3293,28 @@
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="48"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB56" s="48"/>
+    </row>
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="41"/>
-      <c r="D57" s="43"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
       <c r="I57" s="43"/>
       <c r="J57" s="43"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="45"/>
       <c r="M57" s="43"/>
       <c r="N57" s="43"/>
       <c r="O57" s="43"/>
       <c r="P57" s="43"/>
       <c r="Q57" s="43"/>
       <c r="R57" s="43"/>
-      <c r="S57" s="48"/>
+      <c r="S57" s="43"/>
       <c r="T57" s="48"/>
       <c r="U57" s="48"/>
       <c r="V57" s="48"/>
@@ -3194,27 +3323,28 @@
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
       <c r="AA57" s="48"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB57" s="48"/>
+    </row>
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="41"/>
-      <c r="D58" s="43"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="43"/>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
       <c r="I58" s="43"/>
       <c r="J58" s="43"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="45"/>
       <c r="M58" s="43"/>
       <c r="N58" s="43"/>
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
       <c r="Q58" s="43"/>
       <c r="R58" s="43"/>
-      <c r="S58" s="48"/>
+      <c r="S58" s="43"/>
       <c r="T58" s="48"/>
       <c r="U58" s="48"/>
       <c r="V58" s="48"/>
@@ -3223,27 +3353,28 @@
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="48"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB58" s="48"/>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="41"/>
-      <c r="D59" s="43"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="43"/>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
       <c r="I59" s="43"/>
       <c r="J59" s="43"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="45"/>
       <c r="M59" s="43"/>
       <c r="N59" s="43"/>
       <c r="O59" s="43"/>
       <c r="P59" s="43"/>
       <c r="Q59" s="43"/>
       <c r="R59" s="43"/>
-      <c r="S59" s="48"/>
+      <c r="S59" s="43"/>
       <c r="T59" s="48"/>
       <c r="U59" s="48"/>
       <c r="V59" s="48"/>
@@ -3252,27 +3383,28 @@
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
       <c r="AA59" s="48"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB59" s="48"/>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="49"/>
       <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="43"/>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
       <c r="I60" s="43"/>
       <c r="J60" s="43"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="45"/>
       <c r="M60" s="43"/>
       <c r="N60" s="43"/>
       <c r="O60" s="43"/>
       <c r="P60" s="43"/>
       <c r="Q60" s="43"/>
       <c r="R60" s="43"/>
-      <c r="S60" s="48"/>
+      <c r="S60" s="43"/>
       <c r="T60" s="48"/>
       <c r="U60" s="48"/>
       <c r="V60" s="48"/>
@@ -3281,15 +3413,16 @@
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
       <c r="AA60" s="48"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB60" s="48"/>
+    </row>
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="41"/>
-      <c r="D61" s="43"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="43"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="45"/>
       <c r="H61" s="43"/>
       <c r="I61" s="43"/>
       <c r="J61" s="43"/>
@@ -3301,7 +3434,7 @@
       <c r="P61" s="43"/>
       <c r="Q61" s="43"/>
       <c r="R61" s="43"/>
-      <c r="S61" s="53"/>
+      <c r="S61" s="43"/>
       <c r="T61" s="53"/>
       <c r="U61" s="53"/>
       <c r="V61" s="53"/>
@@ -3310,15 +3443,16 @@
       <c r="Y61" s="53"/>
       <c r="Z61" s="53"/>
       <c r="AA61" s="53"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB61" s="53"/>
+    </row>
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="41"/>
-      <c r="D62" s="43"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="43"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="45"/>
       <c r="H62" s="43"/>
       <c r="I62" s="43"/>
       <c r="J62" s="43"/>
@@ -3330,7 +3464,7 @@
       <c r="P62" s="43"/>
       <c r="Q62" s="43"/>
       <c r="R62" s="43"/>
-      <c r="S62" s="53"/>
+      <c r="S62" s="43"/>
       <c r="T62" s="53"/>
       <c r="U62" s="53"/>
       <c r="V62" s="53"/>
@@ -3339,17 +3473,18 @@
       <c r="Y62" s="53"/>
       <c r="Z62" s="53"/>
       <c r="AA62" s="53"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB62" s="53"/>
+    </row>
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="41"/>
-      <c r="D63" s="43"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="41"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="45"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="43"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="43"/>
       <c r="K63" s="43"/>
       <c r="L63" s="43"/>
@@ -3359,7 +3494,7 @@
       <c r="P63" s="43"/>
       <c r="Q63" s="43"/>
       <c r="R63" s="43"/>
-      <c r="S63" s="53"/>
+      <c r="S63" s="43"/>
       <c r="T63" s="53"/>
       <c r="U63" s="53"/>
       <c r="V63" s="53"/>
@@ -3368,15 +3503,16 @@
       <c r="Y63" s="53"/>
       <c r="Z63" s="53"/>
       <c r="AA63" s="53"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB63" s="53"/>
+    </row>
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="41"/>
-      <c r="D64" s="43"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="43"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="43"/>
       <c r="I64" s="43"/>
       <c r="J64" s="43"/>
@@ -3388,7 +3524,7 @@
       <c r="P64" s="43"/>
       <c r="Q64" s="43"/>
       <c r="R64" s="43"/>
-      <c r="S64" s="53"/>
+      <c r="S64" s="43"/>
       <c r="T64" s="53"/>
       <c r="U64" s="53"/>
       <c r="V64" s="53"/>
@@ -3397,15 +3533,16 @@
       <c r="Y64" s="53"/>
       <c r="Z64" s="53"/>
       <c r="AA64" s="53"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB64" s="53"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="41"/>
-      <c r="D65" s="43"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="45"/>
       <c r="H65" s="43"/>
       <c r="I65" s="43"/>
       <c r="J65" s="43"/>
@@ -3417,7 +3554,7 @@
       <c r="P65" s="43"/>
       <c r="Q65" s="43"/>
       <c r="R65" s="43"/>
-      <c r="S65" s="53"/>
+      <c r="S65" s="43"/>
       <c r="T65" s="53"/>
       <c r="U65" s="53"/>
       <c r="V65" s="53"/>
@@ -3426,15 +3563,16 @@
       <c r="Y65" s="53"/>
       <c r="Z65" s="53"/>
       <c r="AA65" s="53"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB65" s="53"/>
+    </row>
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="41"/>
-      <c r="D66" s="43"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="43"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="45"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
@@ -3446,7 +3584,7 @@
       <c r="P66" s="43"/>
       <c r="Q66" s="43"/>
       <c r="R66" s="43"/>
-      <c r="S66" s="53"/>
+      <c r="S66" s="43"/>
       <c r="T66" s="53"/>
       <c r="U66" s="53"/>
       <c r="V66" s="53"/>
@@ -3455,15 +3593,16 @@
       <c r="Y66" s="53"/>
       <c r="Z66" s="53"/>
       <c r="AA66" s="53"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB66" s="53"/>
+    </row>
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="41"/>
-      <c r="D67" s="43"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="43"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="43"/>
       <c r="I67" s="43"/>
       <c r="J67" s="43"/>
@@ -3475,7 +3614,7 @@
       <c r="P67" s="43"/>
       <c r="Q67" s="43"/>
       <c r="R67" s="43"/>
-      <c r="S67" s="53"/>
+      <c r="S67" s="43"/>
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
       <c r="V67" s="53"/>
@@ -3484,27 +3623,28 @@
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB67" s="53"/>
+    </row>
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="41"/>
-      <c r="D68" s="43"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="43"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="41"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="41"/>
-      <c r="I68" s="43"/>
+      <c r="I68" s="41"/>
       <c r="J68" s="43"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="41"/>
       <c r="M68" s="43"/>
       <c r="N68" s="43"/>
       <c r="O68" s="43"/>
       <c r="P68" s="43"/>
       <c r="Q68" s="43"/>
       <c r="R68" s="43"/>
-      <c r="S68" s="53"/>
+      <c r="S68" s="43"/>
       <c r="T68" s="53"/>
       <c r="U68" s="53"/>
       <c r="V68" s="53"/>
@@ -3513,27 +3653,28 @@
       <c r="Y68" s="53"/>
       <c r="Z68" s="53"/>
       <c r="AA68" s="53"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB68" s="53"/>
+    </row>
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="39"/>
       <c r="B69" s="54"/>
       <c r="C69" s="41"/>
-      <c r="D69" s="43"/>
+      <c r="D69" s="48"/>
       <c r="E69" s="43"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="41"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="41"/>
-      <c r="I69" s="43"/>
+      <c r="I69" s="41"/>
       <c r="J69" s="43"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="41"/>
       <c r="M69" s="43"/>
       <c r="N69" s="43"/>
       <c r="O69" s="43"/>
       <c r="P69" s="43"/>
       <c r="Q69" s="43"/>
       <c r="R69" s="43"/>
-      <c r="S69" s="53"/>
+      <c r="S69" s="43"/>
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
       <c r="V69" s="53"/>
@@ -3542,15 +3683,16 @@
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB69" s="53"/>
+    </row>
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="41"/>
-      <c r="D70" s="43"/>
+      <c r="D70" s="48"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="43"/>
       <c r="I70" s="43"/>
       <c r="J70" s="43"/>
@@ -3562,7 +3704,7 @@
       <c r="P70" s="43"/>
       <c r="Q70" s="43"/>
       <c r="R70" s="43"/>
-      <c r="S70" s="53"/>
+      <c r="S70" s="43"/>
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
@@ -3571,10 +3713,11 @@
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
+      <c r="AB70" s="53"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:E70" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F70">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3584,24 +3727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="16" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="16" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3611,7 +3754,9 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3625,7 +3770,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -3635,8 +3780,11 @@
       <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3646,8 +3794,11 @@
       <c r="C3" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3657,8 +3808,11 @@
       <c r="C4" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -3668,8 +3822,11 @@
       <c r="C5" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -3679,8 +3836,11 @@
       <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -3690,8 +3850,11 @@
       <c r="C7" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -3701,8 +3864,11 @@
       <c r="C8" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -3712,8 +3878,11 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
@@ -3723,8 +3892,11 @@
       <c r="C10" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
@@ -3734,12 +3906,15 @@
       <c r="C11" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="16"/>
     </row>
@@ -3749,8 +3924,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z2"/>
@@ -3760,15 +3935,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3985,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
@@ -3819,7 +3994,7 @@
       </c>
       <c r="C2" s="17">
         <f ca="1">NOW()</f>
-        <v>43909.523002893518</v>
+        <v>43918.513339467594</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
@@ -3855,8 +4030,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W1000"/>
@@ -3866,13 +4041,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="23" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3915,7 +4090,7 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
         <v>98</v>
       </c>
@@ -3946,7 +4121,7 @@
       <c r="V2" s="44"/>
       <c r="W2" s="44"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="44" t="s">
         <v>98</v>
       </c>
@@ -3977,7 +4152,7 @@
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -4002,7 +4177,7 @@
       <c r="V4" s="44"/>
       <c r="W4" s="44"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>103</v>
       </c>
@@ -4033,7 +4208,7 @@
       <c r="V5" s="44"/>
       <c r="W5" s="44"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="44" t="s">
         <v>103</v>
       </c>
@@ -4064,7 +4239,7 @@
       <c r="V6" s="44"/>
       <c r="W6" s="44"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="44" t="s">
         <v>103</v>
       </c>
@@ -4095,7 +4270,7 @@
       <c r="V7" s="44"/>
       <c r="W7" s="44"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="44" t="s">
         <v>103</v>
       </c>
@@ -4126,7 +4301,7 @@
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
         <v>103</v>
       </c>
@@ -4157,7 +4332,7 @@
       <c r="V9" s="44"/>
       <c r="W9" s="44"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4182,7 +4357,7 @@
       <c r="V10" s="44"/>
       <c r="W10" s="44"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="44" t="s">
         <v>120</v>
       </c>
@@ -4213,7 +4388,7 @@
       <c r="V11" s="44"/>
       <c r="W11" s="44"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
         <v>120</v>
       </c>
@@ -4244,7 +4419,7 @@
       <c r="V12" s="44"/>
       <c r="W12" s="44"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
         <v>120</v>
       </c>
@@ -4275,7 +4450,7 @@
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
         <v>120</v>
       </c>
@@ -4306,7 +4481,7 @@
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
         <v>120</v>
       </c>
@@ -4337,7 +4512,7 @@
       <c r="V15" s="44"/>
       <c r="W15" s="44"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="44" t="s">
         <v>120</v>
       </c>
@@ -4368,7 +4543,7 @@
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -4393,7 +4568,7 @@
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="44" t="s">
         <v>137</v>
       </c>
@@ -4424,7 +4599,7 @@
       <c r="V18" s="44"/>
       <c r="W18" s="44"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="44" t="s">
         <v>137</v>
       </c>
@@ -4455,7 +4630,7 @@
       <c r="V19" s="44"/>
       <c r="W19" s="44"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
         <v>137</v>
       </c>
@@ -4486,7 +4661,7 @@
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
         <v>137</v>
       </c>
@@ -4517,7 +4692,7 @@
       <c r="V21" s="44"/>
       <c r="W21" s="44"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
         <v>137</v>
       </c>
@@ -4548,7 +4723,7 @@
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="44" t="s">
         <v>137</v>
       </c>
@@ -4579,7 +4754,7 @@
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -4604,7 +4779,7 @@
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="44" t="s">
         <v>145</v>
       </c>
@@ -4635,7 +4810,7 @@
       <c r="V25" s="44"/>
       <c r="W25" s="44"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="44" t="s">
         <v>145</v>
       </c>
@@ -4666,7 +4841,7 @@
       <c r="V26" s="44"/>
       <c r="W26" s="44"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="44" t="s">
         <v>145</v>
       </c>
@@ -4697,7 +4872,7 @@
       <c r="V27" s="44"/>
       <c r="W27" s="44"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="44" t="s">
         <v>145</v>
       </c>
@@ -4728,7 +4903,7 @@
       <c r="V28" s="44"/>
       <c r="W28" s="44"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="44" t="s">
         <v>145</v>
       </c>
@@ -4759,7 +4934,7 @@
       <c r="V29" s="44"/>
       <c r="W29" s="44"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -4784,7 +4959,7 @@
       <c r="V30" s="44"/>
       <c r="W30" s="44"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="44" t="s">
         <v>159</v>
       </c>
@@ -4815,7 +4990,7 @@
       <c r="V31" s="44"/>
       <c r="W31" s="44"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="44" t="s">
         <v>159</v>
       </c>
@@ -4846,7 +5021,7 @@
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -4871,7 +5046,7 @@
       <c r="V33" s="44"/>
       <c r="W33" s="44"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -4883,7 +5058,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -4895,7 +5070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -4907,7 +5082,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -4919,7 +5094,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -4931,7 +5106,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -4943,7 +5118,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -4955,7 +5130,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -4967,7 +5142,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -4979,7 +5154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -4990,13 +5165,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="str">
         <f t="shared" ref="B44:B47" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -5008,7 +5183,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -5020,13 +5195,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="50" t="s">
         <v>175</v>
       </c>
@@ -5057,7 +5232,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="50" t="s">
         <v>175</v>
       </c>
@@ -5088,8 +5263,8 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -5100,7 +5275,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -5111,7 +5286,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -5122,7 +5297,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -5133,7 +5308,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -5144,7 +5319,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -5155,8 +5330,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="50" t="s">
         <v>191</v>
       </c>
@@ -5167,7 +5342,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="50" t="s">
         <v>191</v>
       </c>
@@ -5178,7 +5353,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="50" t="s">
         <v>191</v>
       </c>
@@ -5189,7 +5364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="50" t="s">
         <v>191</v>
       </c>
@@ -5200,8 +5375,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>198</v>
       </c>
@@ -5212,7 +5387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>198</v>
       </c>
@@ -5223,7 +5398,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>198</v>
       </c>
@@ -5234,7 +5409,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>198</v>
       </c>
@@ -5245,7 +5420,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>198</v>
       </c>
@@ -5256,8 +5431,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -5268,7 +5443,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -5279,8 +5454,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -5291,7 +5466,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -5302,7 +5477,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -5313,932 +5488,932 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
